--- a/document/ffms逻辑模型0.1.xlsx
+++ b/document/ffms逻辑模型0.1.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="187">
   <si>
     <t>中文名</t>
   </si>
@@ -995,10 +995,28 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
+    <t>CHG_AMT</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>变化量</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>BALANCE_AFTER</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>事后余额</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
     <t>取值范围: [ 'ADD' | 'SUBTRACT' ]
 ADD -&gt; 增加
 SUBTRACT -&gt; 扣减
-Change -&gt; 更新</t>
+TRANS_SUBTRACT -&gt; 转账扣减
+TRANS_ADD -&gt; 转账增加
+CHANGE -&gt; 更新</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -3190,10 +3208,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
@@ -3296,13 +3314,13 @@
         <v>18</v>
       </c>
       <c r="E7" s="4">
-        <v>100</v>
+        <v>512</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="48" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" ht="72" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
         <v>3</v>
       </c>
@@ -3322,7 +3340,7 @@
         <v>15</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
@@ -3348,10 +3366,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>77</v>
+        <v>184</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>78</v>
+        <v>185</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>79</v>
@@ -3365,19 +3383,19 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>91</v>
+        <v>182</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>139</v>
+        <v>183</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="4">
-        <v>20</v>
+        <v>79</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>15</v>
@@ -3385,19 +3403,19 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>179</v>
+        <v>91</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>180</v>
+        <v>139</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>181</v>
+        <v>14</v>
       </c>
       <c r="E12" s="4">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>15</v>
@@ -3405,42 +3423,62 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>85</v>
+        <v>179</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>86</v>
+        <v>180</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>87</v>
+        <v>181</v>
+      </c>
+      <c r="E13" s="4">
+        <v>32</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
+        <v>8</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B15" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E15" s="4">
         <v>6</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="6"/>
+      <c r="G15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>

--- a/document/ffms逻辑模型0.1.xlsx
+++ b/document/ffms逻辑模型0.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14235" tabRatio="841" firstSheet="4" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14235" tabRatio="841" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="187">
   <si>
     <t>中文名</t>
   </si>
@@ -1534,7 +1534,7 @@
   <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="20.25" x14ac:dyDescent="0.25"/>
@@ -2682,10 +2682,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
@@ -2841,21 +2841,41 @@
         <v>5</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E10" s="4">
+        <v>32</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" s="4">
+        <v>6</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E11" s="4">
         <v>1</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="4" t="b">
+      <c r="G11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3210,9 +3230,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
-    </sheetView>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
   <cols>

--- a/document/ffms逻辑模型0.1.xlsx
+++ b/document/ffms逻辑模型0.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14235" tabRatio="841" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14235" tabRatio="841" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="187">
   <si>
     <t>中文名</t>
   </si>
@@ -1534,7 +1534,7 @@
   <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="20.25" x14ac:dyDescent="0.25"/>
@@ -2132,9 +2132,9 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2346,6 +2346,26 @@
       </c>
       <c r="G12" s="4" t="s">
         <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="4">
+        <v>8</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E13" s="4">
+        <v>32</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2684,9 +2704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
   <cols>
